--- a/hw3/Контрагенты-Никулин-нормализация (v5).xlsx
+++ b/hw3/Контрагенты-Никулин-нормализация (v5).xlsx
@@ -391,18 +391,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -701,42 +701,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,86 +1316,86 @@
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="B3" s="18"/>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="B4" s="18"/>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="19">
-        <v>2</v>
-      </c>
-      <c r="D5" s="19">
-        <v>2</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="B5" s="18"/>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="19">
-        <v>2</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="B6" s="18"/>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="19">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="B7" s="18"/>
+      <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="B8" s="18"/>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
         <v>4</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       <c r="E16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -1544,7 +1544,7 @@
       <c r="E17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>2</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -1650,7 +1650,7 @@
       <c r="D23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -1664,7 +1664,7 @@
       <c r="D24" s="14">
         <v>3254</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>1</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -1678,7 +1678,7 @@
       <c r="D25" s="14">
         <v>7634</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>2</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -1689,7 +1689,7 @@
       <c r="D26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>3</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,86 +1744,86 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="20"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="20"/>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D5" s="20"/>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="D5" s="18"/>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="20"/>
-      <c r="E6" s="19">
-        <v>2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="20"/>
-      <c r="E7" s="19">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="20"/>
-      <c r="E8" s="19">
-        <v>3</v>
-      </c>
-      <c r="F8" s="19">
-        <v>2</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="D8" s="18"/>
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="20"/>
-      <c r="E9" s="19">
-        <v>3</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="D9" s="18"/>
+      <c r="E9" s="17">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
         <v>4</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="E17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -1956,7 +1956,7 @@
       <c r="E18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>2</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -2062,7 +2062,7 @@
       <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="13" t="s">
@@ -2076,7 +2076,7 @@
       <c r="D25" s="14">
         <v>3254</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>1</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -2090,7 +2090,7 @@
       <c r="D26" s="14">
         <v>7634</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>2</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -2101,7 +2101,7 @@
       <c r="D27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>3</v>
       </c>
       <c r="G27" s="14" t="s">
